--- a/models/calculation engines/cbix2/outputs/panamax/data_tables/viu_cost_data_table.xlsx
+++ b/models/calculation engines/cbix2/outputs/panamax/data_tables/viu_cost_data_table.xlsx
@@ -621,7 +621,7 @@
         <v>34.55992218765324</v>
       </c>
       <c r="E4" t="n">
-        <v>36.10998860715232</v>
+        <v>36.10998860715233</v>
       </c>
       <c r="F4" t="n">
         <v>34.75783823991095</v>
@@ -731,7 +731,7 @@
         <v>44.06648079065213</v>
       </c>
       <c r="E6" t="n">
-        <v>48.85377501619942</v>
+        <v>48.85377501619941</v>
       </c>
       <c r="F6" t="n">
         <v>45.54297817580626</v>
@@ -786,7 +786,7 @@
         <v>45.31399693650093</v>
       </c>
       <c r="E7" t="n">
-        <v>49.42767356958534</v>
+        <v>49.42767356958533</v>
       </c>
       <c r="F7" t="n">
         <v>47.14350762798904</v>
@@ -841,7 +841,7 @@
         <v>31.83457944307042</v>
       </c>
       <c r="E8" t="n">
-        <v>34.79534786074966</v>
+        <v>34.79534786074967</v>
       </c>
       <c r="F8" t="n">
         <v>34.93216736569781</v>
@@ -896,7 +896,7 @@
         <v>36.0016665742754</v>
       </c>
       <c r="E9" t="n">
-        <v>40.6043690913635</v>
+        <v>40.60436909136351</v>
       </c>
       <c r="F9" t="n">
         <v>37.51799095142263</v>
@@ -951,7 +951,7 @@
         <v>42.7681783531597</v>
       </c>
       <c r="E10" t="n">
-        <v>47.25361342668842</v>
+        <v>47.25361342668843</v>
       </c>
       <c r="F10" t="n">
         <v>50.92879749180945</v>
@@ -1061,7 +1061,7 @@
         <v>61.87281135174579</v>
       </c>
       <c r="E12" t="n">
-        <v>66.40184045799757</v>
+        <v>66.40184045799754</v>
       </c>
       <c r="F12" t="n">
         <v>60.99056837027092</v>
@@ -1171,7 +1171,7 @@
         <v>40.2151544000038</v>
       </c>
       <c r="E14" t="n">
-        <v>49.28706130119316</v>
+        <v>49.28706130119315</v>
       </c>
       <c r="F14" t="n">
         <v>44.83671642305473</v>
@@ -1226,7 +1226,7 @@
         <v>40.43645254533295</v>
       </c>
       <c r="E15" t="n">
-        <v>48.24663064236878</v>
+        <v>48.24663064236876</v>
       </c>
       <c r="F15" t="n">
         <v>44.07734110567021</v>
@@ -1336,7 +1336,7 @@
         <v>33.99880231596271</v>
       </c>
       <c r="E17" t="n">
-        <v>37.79897071717813</v>
+        <v>37.79897071717814</v>
       </c>
       <c r="F17" t="n">
         <v>35.73880097283597</v>
@@ -1556,7 +1556,7 @@
         <v>41.85469069665047</v>
       </c>
       <c r="E21" t="n">
-        <v>43.44690276073901</v>
+        <v>43.44690276073899</v>
       </c>
       <c r="F21" t="n">
         <v>41.01887307119728</v>
@@ -1611,7 +1611,7 @@
         <v>42.60744710263688</v>
       </c>
       <c r="E22" t="n">
-        <v>49.9348285479139</v>
+        <v>49.93482854791388</v>
       </c>
       <c r="F22" t="n">
         <v>46.02750672540555</v>
@@ -1666,7 +1666,7 @@
         <v>42.65736186874659</v>
       </c>
       <c r="E23" t="n">
-        <v>42.92481911880851</v>
+        <v>42.92481911880849</v>
       </c>
       <c r="F23" t="n">
         <v>38.82046032266891</v>
@@ -1776,7 +1776,7 @@
         <v>41.89541498451874</v>
       </c>
       <c r="E25" t="n">
-        <v>43.5953105181861</v>
+        <v>43.59531051818611</v>
       </c>
       <c r="F25" t="n">
         <v>41.22609756729685</v>
@@ -1831,7 +1831,7 @@
         <v>50.00235708782965</v>
       </c>
       <c r="E26" t="n">
-        <v>51.47269540362664</v>
+        <v>51.47269540362665</v>
       </c>
       <c r="F26" t="n">
         <v>49.9730585082861</v>
@@ -1941,7 +1941,7 @@
         <v>30.35409926858241</v>
       </c>
       <c r="E28" t="n">
-        <v>37.19379288132931</v>
+        <v>37.19379288132929</v>
       </c>
       <c r="F28" t="n">
         <v>35.87433712511992</v>
@@ -1996,7 +1996,7 @@
         <v>19.46749644123144</v>
       </c>
       <c r="E29" t="n">
-        <v>21.9251965014954</v>
+        <v>21.92519650149539</v>
       </c>
       <c r="F29" t="n">
         <v>22.88771776175796</v>
@@ -2051,7 +2051,7 @@
         <v>40.28015053987136</v>
       </c>
       <c r="E30" t="n">
-        <v>45.06103448895309</v>
+        <v>45.06103448895307</v>
       </c>
       <c r="F30" t="n">
         <v>41.74382737209449</v>
@@ -2106,7 +2106,7 @@
         <v>45.79800858697825</v>
       </c>
       <c r="E31" t="n">
-        <v>49.45426386675787</v>
+        <v>49.45426386675785</v>
       </c>
       <c r="F31" t="n">
         <v>46.14237890778149</v>
@@ -2161,7 +2161,7 @@
         <v>48.4019053584283</v>
       </c>
       <c r="E32" t="n">
-        <v>49.85900530995725</v>
+        <v>49.85900530995724</v>
       </c>
       <c r="F32" t="n">
         <v>42.83264048783525</v>
@@ -2216,7 +2216,7 @@
         <v>42.87916755508792</v>
       </c>
       <c r="E33" t="n">
-        <v>47.32964482054267</v>
+        <v>47.32964482054268</v>
       </c>
       <c r="F33" t="n">
         <v>43.52311958537166</v>
@@ -2381,7 +2381,7 @@
         <v>28.8914906085504</v>
       </c>
       <c r="E36" t="n">
-        <v>32.26081053153407</v>
+        <v>32.26081053153406</v>
       </c>
       <c r="F36" t="n">
         <v>29.55248313565226</v>
@@ -2436,7 +2436,7 @@
         <v>38.13682023432244</v>
       </c>
       <c r="E37" t="n">
-        <v>39.82806665306802</v>
+        <v>39.82806665306801</v>
       </c>
       <c r="F37" t="n">
         <v>36.36440228875502</v>
@@ -2546,7 +2546,7 @@
         <v>40.89763508943823</v>
       </c>
       <c r="E39" t="n">
-        <v>45.62820566680798</v>
+        <v>45.62820566680799</v>
       </c>
       <c r="F39" t="n">
         <v>42.47826229058619</v>
@@ -2656,7 +2656,7 @@
         <v>45.20309053880795</v>
       </c>
       <c r="E41" t="n">
-        <v>50.18253867685011</v>
+        <v>50.18253867685009</v>
       </c>
       <c r="F41" t="n">
         <v>46.61239075210163</v>
@@ -2821,7 +2821,7 @@
         <v>39.87314429595099</v>
       </c>
       <c r="E44" t="n">
-        <v>43.45808686029628</v>
+        <v>43.45808686029626</v>
       </c>
       <c r="F44" t="n">
         <v>40.25709449581785</v>
@@ -2931,7 +2931,7 @@
         <v>41.8377994895904</v>
       </c>
       <c r="E46" t="n">
-        <v>46.43976169978928</v>
+        <v>46.43976169978929</v>
       </c>
       <c r="F46" t="n">
         <v>43.35264325295929</v>
@@ -2986,7 +2986,7 @@
         <v>34.67289762238282</v>
       </c>
       <c r="E47" t="n">
-        <v>39.27485983258173</v>
+        <v>39.27485983258174</v>
       </c>
       <c r="F47" t="n">
         <v>36.18774138575174</v>
@@ -3041,7 +3041,7 @@
         <v>31.60262233593937</v>
       </c>
       <c r="E48" t="n">
-        <v>51.86838873114858</v>
+        <v>51.86838873114859</v>
       </c>
       <c r="F48" t="n">
         <v>48.50670166517705</v>
